--- a/biology/Zoologie/Acropora_hyacinthus/Acropora_hyacinthus.xlsx
+++ b/biology/Zoologie/Acropora_hyacinthus/Acropora_hyacinthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora hyacinthus est une espèce de coraux appartenant à la famille des Acroporidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un corail tabulaire, dont les colonies forment de larges plaques, ou parfois des suites d'« étagères » superposées. Les branches sont minces et finement structurées (sauf si la colonie est très exposée aux vagues, auquel cas elles deviennent étroitement fusionnées). Les branches secondaires sont fines et verticales. Le corallite axial est distinct, mais pas proéminent. Les corallites radiaux sont en forme de coupe et forment des rosettes. 
-Ce corail est généralement de couleur crème, parfois brun ou gris, éventuellement teinté de bleu à la marge[3].
-Cette espèce ne doit pas être confondue avec les proches Acropora cytherea, Acropora clathrata, Acropora spicifera ou Acropora tanegashimensis[3].
+Ce corail est généralement de couleur crème, parfois brun ou gris, éventuellement teinté de bleu à la marge.
+Cette espèce ne doit pas être confondue avec les proches Acropora cytherea, Acropora clathrata, Acropora spicifera ou Acropora tanegashimensis.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une des espèces de coraux, de milieu exposé, les plus courantes de tout l'Indo-Pacifique et elle se rencontre de l'Afrique du Sud aux îles du Pacifique central[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une des espèces de coraux, de milieu exposé, les plus courantes de tout l'Indo-Pacifique et elle se rencontre de l'Afrique du Sud aux îles du Pacifique central.
 </t>
         </is>
       </c>
